--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail1 Features.xlsx
@@ -2145,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.422981917368953</v>
+        <v>1.385005659482471</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.448128038671676</v>
@@ -2234,7 +2234,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456863777669215</v>
+        <v>1.418674473152607</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.307362828582235</v>
@@ -2323,7 +2323,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.478734380445048</v>
+        <v>1.433314211928788</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.240245805796541</v>
@@ -2412,7 +2412,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.491373712238943</v>
+        <v>1.454766193722798</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.50495925986801</v>
@@ -2501,7 +2501,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502733919798496</v>
+        <v>1.464498707510191</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.670528848109681</v>
@@ -2590,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491115668235385</v>
+        <v>1.44834522550004</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.305491493743536</v>
@@ -2679,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470640409250698</v>
+        <v>1.436802500676648</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.370305890256296</v>
@@ -2768,7 +2768,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.474498197582021</v>
+        <v>1.439977217323155</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.402340563130566</v>
@@ -2857,7 +2857,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.472815217362659</v>
+        <v>1.433533257054836</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.411746862073126</v>
@@ -2946,7 +2946,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.470410930808163</v>
+        <v>1.431232592516053</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.274949307398338</v>
@@ -3035,7 +3035,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.469871173586483</v>
+        <v>1.42605243564282</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.279549038497979</v>
@@ -3124,7 +3124,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.464770736560942</v>
+        <v>1.412268823060654</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.296049009040164</v>
@@ -3213,7 +3213,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.488320552933179</v>
+        <v>1.435366778876168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.429692115005592</v>
@@ -3302,7 +3302,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.470224847066836</v>
+        <v>1.42339160889789</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.370766497511791</v>
@@ -3391,7 +3391,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.487121104186908</v>
+        <v>1.433887848821468</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.629699351883751</v>
@@ -3480,7 +3480,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.486761869710869</v>
+        <v>1.433966015797529</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.5470973731585</v>
@@ -3569,7 +3569,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.495747007999117</v>
+        <v>1.441175421179408</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.307065643835266</v>
@@ -3658,7 +3658,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.475695034372146</v>
+        <v>1.430202735726386</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.462759027252093</v>
@@ -3747,7 +3747,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.460910796541326</v>
+        <v>1.412116958358309</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.293279461682082</v>
@@ -3836,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.474466202828246</v>
+        <v>1.418549349358193</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.298280888429833</v>
@@ -3925,7 +3925,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.494493340311774</v>
+        <v>1.434161607730982</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.64753489646663</v>
@@ -4014,7 +4014,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511966914287006</v>
+        <v>1.450386815957015</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.441494242977824</v>
@@ -4103,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.510272970520983</v>
+        <v>1.439772823008715</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.519003527383114</v>
@@ -4192,7 +4192,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.505016581879184</v>
+        <v>1.436264262531242</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.375299838327129</v>
@@ -4281,7 +4281,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.507425085850271</v>
+        <v>1.430961151857025</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.541780586216686</v>
@@ -4370,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.529004472037128</v>
+        <v>1.446865508054989</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.574529068460059</v>
@@ -4459,7 +4459,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.535970652642678</v>
+        <v>1.462086186562895</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.42483687735748</v>
@@ -4548,7 +4548,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.554077530477435</v>
+        <v>1.474913993407172</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.329354049660739</v>
@@ -4637,7 +4637,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566299305596069</v>
+        <v>1.47423496218924</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.422773826508785</v>
@@ -4726,7 +4726,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.563261452673923</v>
+        <v>1.465303858124212</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.485252183905747</v>
@@ -4815,7 +4815,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.53810679059924</v>
+        <v>1.442422543612309</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.527012487468501</v>
@@ -4904,7 +4904,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528466734331291</v>
+        <v>1.433054498956718</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.364667745480452</v>
@@ -4993,7 +4993,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.523001068994336</v>
+        <v>1.424072579582864</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.259838335817768</v>
@@ -5082,7 +5082,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.495637330599284</v>
+        <v>1.408198053138188</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.376961890084148</v>
@@ -5171,7 +5171,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.503065278838026</v>
+        <v>1.421630962463055</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.481689880271464</v>
@@ -5260,7 +5260,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.516324945388231</v>
+        <v>1.437090076766391</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.289583573869216</v>
@@ -5349,7 +5349,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.504378147257298</v>
+        <v>1.423270934123421</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.427611233465108</v>
@@ -5438,7 +5438,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.503059020668151</v>
+        <v>1.429143759388663</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.370633780752179</v>
@@ -5527,7 +5527,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.487051277971557</v>
+        <v>1.419928853110879</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.412567644541798</v>
@@ -5616,7 +5616,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.484124283712765</v>
+        <v>1.42134596760186</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.507995193015014</v>
@@ -5705,7 +5705,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.464318231319165</v>
+        <v>1.401210245411129</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.430353193509319</v>
@@ -5794,7 +5794,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.438343462935066</v>
+        <v>1.373396759342525</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.466014038864506</v>
@@ -6080,7 +6080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441892919714348</v>
+        <v>1.412955190770388</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.338828647336451</v>
@@ -6169,7 +6169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.458605584241078</v>
+        <v>1.425968814721063</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.211910981449558</v>
@@ -6258,7 +6258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.484577096525794</v>
+        <v>1.444119584013747</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.635861477757019</v>
@@ -6347,7 +6347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.505192673293272</v>
+        <v>1.460260538752636</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.902920268276728</v>
@@ -6436,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501853087935984</v>
+        <v>1.46072151276817</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.621986101503394</v>
@@ -6525,7 +6525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499824116095166</v>
+        <v>1.452658183846848</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.447298466242315</v>
@@ -6614,7 +6614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.480149308053073</v>
+        <v>1.435455732550741</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.416010129121174</v>
@@ -6703,7 +6703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.487864584416908</v>
+        <v>1.438544334998464</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.378178304920523</v>
@@ -6792,7 +6792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.494760814221878</v>
+        <v>1.439606491202099</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.372710705907479</v>
@@ -6881,7 +6881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.499282267569354</v>
+        <v>1.441844000945638</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.419983134014302</v>
@@ -6970,7 +6970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.49346761078143</v>
+        <v>1.436314639108621</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.412834428301841</v>
@@ -7059,7 +7059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.49175954145418</v>
+        <v>1.428575530778024</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.297780143120533</v>
@@ -7148,7 +7148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.5062575671502</v>
+        <v>1.441259390584944</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.568153411386933</v>
@@ -7237,7 +7237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.499450302717658</v>
+        <v>1.434133345328571</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.410185708166969</v>
@@ -7326,7 +7326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.514948860896371</v>
+        <v>1.437707110229825</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.515743360492998</v>
@@ -7415,7 +7415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.498773753864439</v>
+        <v>1.43066638466107</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.444099195248274</v>
@@ -7504,7 +7504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.513707865445297</v>
+        <v>1.442921537573734</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.462381701015707</v>
@@ -7593,7 +7593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5153841410126</v>
+        <v>1.451412940470386</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.406481407553123</v>
@@ -7682,7 +7682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.527732880984413</v>
+        <v>1.454105531471914</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.222882928204937</v>
@@ -7771,7 +7771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.543023451881472</v>
+        <v>1.461335955262255</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.407301780514692</v>
@@ -7860,7 +7860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574848110452628</v>
+        <v>1.481116968683446</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.339141426439105</v>
@@ -7949,7 +7949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581810768653628</v>
+        <v>1.484467641016056</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.697393901964564</v>
@@ -8038,7 +8038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.579898758094778</v>
+        <v>1.474541266568108</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.666051172217466</v>
@@ -8127,7 +8127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.577757228765191</v>
+        <v>1.471423691109992</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.779012546217741</v>
@@ -8216,7 +8216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.57970481386415</v>
+        <v>1.474698139237457</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.750336100178381</v>
@@ -8305,7 +8305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.599915709547205</v>
+        <v>1.480639228033181</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.799967969657017</v>
@@ -8394,7 +8394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599226695353369</v>
+        <v>1.480120855564126</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.800156004768243</v>
@@ -8483,7 +8483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.616210112724472</v>
+        <v>1.4822417124122</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.666677905322916</v>
@@ -8572,7 +8572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.615964846170936</v>
+        <v>1.464899047754688</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.597724328936728</v>
@@ -8661,7 +8661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6178029127669</v>
+        <v>1.462866937466775</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.866384974582335</v>
@@ -8750,7 +8750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.59357032491164</v>
+        <v>1.448616373684485</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.639990108783576</v>
@@ -8839,7 +8839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.575537125689573</v>
+        <v>1.435103270604016</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.668920554277526</v>
@@ -8928,7 +8928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558558846884315</v>
+        <v>1.420370111727801</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.507517818399702</v>
@@ -9017,7 +9017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501862521363704</v>
+        <v>1.38543437376699</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.213303447879784</v>
@@ -9106,7 +9106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.498045310932414</v>
+        <v>1.385089018016065</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.28324524298415</v>
@@ -9195,7 +9195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.505377180060885</v>
+        <v>1.397677418228626</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.2774371600863</v>
@@ -9284,7 +9284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.513753603121691</v>
+        <v>1.405534795612513</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.28682872552707</v>
@@ -9373,7 +9373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.510036854297417</v>
+        <v>1.413362757989435</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.314844391223769</v>
@@ -9462,7 +9462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.472200898491582</v>
+        <v>1.387185948401108</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.219236747514503</v>
@@ -9551,7 +9551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.471780580079281</v>
+        <v>1.387778458525366</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.239362525921723</v>
@@ -9640,7 +9640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.458750929062262</v>
+        <v>1.375879198668307</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.279089030449625</v>
@@ -9729,7 +9729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.449362055538593</v>
+        <v>1.368377669332467</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.254443256992358</v>
@@ -10015,7 +10015,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.672322346748447</v>
+        <v>1.56662585986057</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.533547254836007</v>
@@ -10104,7 +10104,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.683800261970587</v>
+        <v>1.5827003820526</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.589055628043328</v>
@@ -10193,7 +10193,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.682501384724807</v>
+        <v>1.580371065355447</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.340926856566317</v>
@@ -10282,7 +10282,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.693767933131326</v>
+        <v>1.602093591450408</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.36810539858006</v>
@@ -10371,7 +10371,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.705189922572345</v>
+        <v>1.615810742527573</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.312609527837565</v>
@@ -10460,7 +10460,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.704019760622324</v>
+        <v>1.611545086865459</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.216745824754055</v>
@@ -10549,7 +10549,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.710945766732413</v>
+        <v>1.610815050380902</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.897352651104483</v>
@@ -10638,7 +10638,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.725093093610484</v>
+        <v>1.616247537146707</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.772035241602512</v>
@@ -10727,7 +10727,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.72504540634345</v>
+        <v>1.615647551780505</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.654393380537341</v>
@@ -10816,7 +10816,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.719835456448309</v>
+        <v>1.609596990656274</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.855722120454941</v>
@@ -10905,7 +10905,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.715323380232089</v>
+        <v>1.603080816456601</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.153164580632065</v>
@@ -10994,7 +10994,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.721779855545306</v>
+        <v>1.603619235983399</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.41201577029899</v>
@@ -11083,7 +11083,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.723227605162734</v>
+        <v>1.605980407566773</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.454794955660987</v>
@@ -11172,7 +11172,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.735694795168216</v>
+        <v>1.612254063080554</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.824936358500575</v>
@@ -11261,7 +11261,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.731871072793915</v>
+        <v>1.60070848511815</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.205469314806927</v>
@@ -11350,7 +11350,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.72894234218703</v>
+        <v>1.595365993157238</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.795392753527296</v>
@@ -11439,7 +11439,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.724936970914147</v>
+        <v>1.591371204740577</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.93826435805707</v>
@@ -11528,7 +11528,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.728060766267234</v>
+        <v>1.600090679983513</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.56445410230469</v>
@@ -11617,7 +11617,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.717341640273454</v>
+        <v>1.577751089755857</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.677995774159113</v>
@@ -11706,7 +11706,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.709563702894468</v>
+        <v>1.568087732344595</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.557648765249799</v>
@@ -11795,7 +11795,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.705606064589536</v>
+        <v>1.56594072268601</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.205390738683424</v>
@@ -11884,7 +11884,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.700750181013389</v>
+        <v>1.566586659047797</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.461912199574384</v>
@@ -11973,7 +11973,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.69725279820793</v>
+        <v>1.561233234878494</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.266961716274977</v>
@@ -12062,7 +12062,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.690767668469281</v>
+        <v>1.562332667041495</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.002561501037252</v>
@@ -12151,7 +12151,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.689170484974748</v>
+        <v>1.554937863135929</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.463576980228308</v>
@@ -12240,7 +12240,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.691683008356111</v>
+        <v>1.553803706129369</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.283126751964521</v>
@@ -12329,7 +12329,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.691398509283401</v>
+        <v>1.559010751262407</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.375520535383914</v>
@@ -12418,7 +12418,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.700197290997888</v>
+        <v>1.570296459277954</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.702183179440135</v>
@@ -12507,7 +12507,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.687685339045355</v>
+        <v>1.554032037589439</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.523236102792013</v>
@@ -12596,7 +12596,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.683752712095708</v>
+        <v>1.547554620466312</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.348162967280803</v>
@@ -12685,7 +12685,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.680272239084578</v>
+        <v>1.542108328551266</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.213409919708076</v>
@@ -12774,7 +12774,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.677769661321477</v>
+        <v>1.533586317246902</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.635317709845303</v>
@@ -12863,7 +12863,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.662302952982344</v>
+        <v>1.513248277308002</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.396905906879863</v>
@@ -12952,7 +12952,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.658804588971564</v>
+        <v>1.509920693072542</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.256863393757211</v>
@@ -13041,7 +13041,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.663955184134496</v>
+        <v>1.51903473876684</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.554431838942841</v>
@@ -13130,7 +13130,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.670495490125483</v>
+        <v>1.525140655536567</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.306969303698715</v>
@@ -13219,7 +13219,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.673260643763094</v>
+        <v>1.520936321355323</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.449448321793894</v>
@@ -13308,7 +13308,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.672409312664517</v>
+        <v>1.520524320075932</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.567565364563042</v>
@@ -13397,7 +13397,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.673918223550958</v>
+        <v>1.523426213345315</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.482232782875186</v>
@@ -13486,7 +13486,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.681936802250754</v>
+        <v>1.53581223954151</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.332430482738505</v>
@@ -13575,7 +13575,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.674705629115986</v>
+        <v>1.527802866745462</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.492617148176472</v>
@@ -13664,7 +13664,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666488590453433</v>
+        <v>1.518168603567454</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.657384013839004</v>
@@ -13950,7 +13950,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.628751611722556</v>
+        <v>1.533606303266298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.194713755984449</v>
@@ -14039,7 +14039,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.635166831094125</v>
+        <v>1.532859302907269</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.087636677217065</v>
@@ -14128,7 +14128,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.645545962071448</v>
+        <v>1.55182113209482</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.969066770862223</v>
@@ -14217,7 +14217,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.653849733862484</v>
+        <v>1.567493550014603</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.197784735482364</v>
@@ -14306,7 +14306,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.661132321571887</v>
+        <v>1.579521087045054</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.163479883425168</v>
@@ -14395,7 +14395,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.668205607183487</v>
+        <v>1.586637567688316</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.87496538184556</v>
@@ -14484,7 +14484,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682025288230532</v>
+        <v>1.593221841976682</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.022399413048124</v>
@@ -14573,7 +14573,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.71738653917746</v>
+        <v>1.616690701258213</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.056562286336235</v>
@@ -14662,7 +14662,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.725725591322225</v>
+        <v>1.621277529867315</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.304480732566831</v>
@@ -14751,7 +14751,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.725923824513915</v>
+        <v>1.62516272947095</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.141937440524122</v>
@@ -14840,7 +14840,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.724392215776598</v>
+        <v>1.621504179561424</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.625245125133586</v>
@@ -14929,7 +14929,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.730383127903682</v>
+        <v>1.628862044108369</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.67056660330212</v>
@@ -15018,7 +15018,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.740356728582968</v>
+        <v>1.653473583617896</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.699749065467126</v>
@@ -15107,7 +15107,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.747996088881757</v>
+        <v>1.660691828619208</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.96694788861832</v>
@@ -15196,7 +15196,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.749700410417848</v>
+        <v>1.656533873791929</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.946710811102254</v>
@@ -15285,7 +15285,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.750795766820579</v>
+        <v>1.656349006658613</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.470329408292022</v>
@@ -15374,7 +15374,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.752266068369569</v>
+        <v>1.658278302715208</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.43288260202074</v>
@@ -15463,7 +15463,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.750172938990446</v>
+        <v>1.652163490912603</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.163610875483188</v>
@@ -15552,7 +15552,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.750432061924244</v>
+        <v>1.643187318134735</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.526347474725803</v>
@@ -15641,7 +15641,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.744992177375368</v>
+        <v>1.619125199836781</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.824730512176228</v>
@@ -15730,7 +15730,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.729425159632203</v>
+        <v>1.597524827282762</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.650450764860933</v>
@@ -15819,7 +15819,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.728396668722959</v>
+        <v>1.602761450402427</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.362072960165038</v>
@@ -15908,7 +15908,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.713713567088371</v>
+        <v>1.58980170960798</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.64960646986263</v>
@@ -15997,7 +15997,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.708803792035779</v>
+        <v>1.578557210598138</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.444584506748026</v>
@@ -16086,7 +16086,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.702924910950437</v>
+        <v>1.571140426166978</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.685630084597243</v>
@@ -16175,7 +16175,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.698228970464754</v>
+        <v>1.560255047501701</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.584337800027791</v>
@@ -16264,7 +16264,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.69884357790794</v>
+        <v>1.562854098014833</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.748500982619928</v>
@@ -16353,7 +16353,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.704872535140902</v>
+        <v>1.564259996688888</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.501437703536638</v>
@@ -16442,7 +16442,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.708981910326703</v>
+        <v>1.553624008025493</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.441496031015641</v>
@@ -16531,7 +16531,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.70779458852729</v>
+        <v>1.549434357210574</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.701513363675323</v>
@@ -16620,7 +16620,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.707556460461104</v>
+        <v>1.558347549667113</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.709534973808217</v>
@@ -16709,7 +16709,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700148001998866</v>
+        <v>1.549848277903119</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.897448987414578</v>
@@ -16798,7 +16798,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.700696440496916</v>
+        <v>1.549817693827789</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.58444356390228</v>
@@ -16887,7 +16887,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.69720441422311</v>
+        <v>1.55567328533709</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.197084315790566</v>
@@ -16976,7 +16976,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694682900018569</v>
+        <v>1.560455652873393</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.063031191770567</v>
@@ -17065,7 +17065,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.701668881241057</v>
+        <v>1.567654966294759</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.771692385042898</v>
@@ -17154,7 +17154,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.700754556277351</v>
+        <v>1.562480007517493</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.134036389442404</v>
@@ -17243,7 +17243,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.717341945724028</v>
+        <v>1.575415683646207</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.757077289195245</v>
@@ -17332,7 +17332,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.710988932605388</v>
+        <v>1.581572187532325</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.668388180154886</v>
@@ -17421,7 +17421,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.715258970417951</v>
+        <v>1.586402388536304</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.743156269364988</v>
@@ -17510,7 +17510,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.708653952749563</v>
+        <v>1.580748165154729</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.557793437726615</v>
@@ -17599,7 +17599,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.700907202870723</v>
+        <v>1.569136057767304</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.255264113443352</v>
@@ -17885,7 +17885,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.457527695829946</v>
+        <v>1.426551386097575</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.410487818840444</v>
@@ -17974,7 +17974,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.471517818810685</v>
+        <v>1.437889819549972</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.376313691781818</v>
@@ -18063,7 +18063,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.468600377375269</v>
+        <v>1.435913836275845</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.229412862998407</v>
@@ -18152,7 +18152,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.49334211252803</v>
+        <v>1.455596303930653</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.355693253702196</v>
@@ -18241,7 +18241,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.489028370695608</v>
+        <v>1.451305543722176</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.362545093737018</v>
@@ -18330,7 +18330,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491015756924538</v>
+        <v>1.440518511132107</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.249908625041516</v>
@@ -18419,7 +18419,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.486326162424021</v>
+        <v>1.431491784401715</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.297148700000468</v>
@@ -18508,7 +18508,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.520419337357473</v>
+        <v>1.450946059856375</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.497880972374525</v>
@@ -18597,7 +18597,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.534353931111492</v>
+        <v>1.458618154719555</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.95244647793992</v>
@@ -18686,7 +18686,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.542251606026619</v>
+        <v>1.466629245825879</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.642450444113778</v>
@@ -18775,7 +18775,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553311466913728</v>
+        <v>1.472476269460115</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.945248736790928</v>
@@ -18864,7 +18864,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.550313380400799</v>
+        <v>1.469639838954576</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.071449155721302</v>
@@ -18953,7 +18953,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.578452121759692</v>
+        <v>1.499180374041329</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.814800281830705</v>
@@ -19042,7 +19042,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589491767226117</v>
+        <v>1.507213354679655</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.974048838519443</v>
@@ -19131,7 +19131,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.594460796194385</v>
+        <v>1.511647180690263</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.846607838163123</v>
@@ -19220,7 +19220,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589291858555765</v>
+        <v>1.516728500698122</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.008655160064093</v>
@@ -19309,7 +19309,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600744542671587</v>
+        <v>1.528633160788324</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.839268998840813</v>
@@ -19398,7 +19398,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.614931903610128</v>
+        <v>1.538304574936097</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.99503118981765</v>
@@ -19487,7 +19487,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.612581876248351</v>
+        <v>1.53500473943741</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.839311541259626</v>
@@ -19576,7 +19576,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.620701682679832</v>
+        <v>1.531949689846075</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.204136158043803</v>
@@ -19665,7 +19665,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.63845147343271</v>
+        <v>1.545598592853951</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.869918702917766</v>
@@ -19754,7 +19754,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.632183224323235</v>
+        <v>1.544707781412695</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.976403654203322</v>
@@ -19843,7 +19843,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647710059349016</v>
+        <v>1.556770208419318</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.922292505529439</v>
@@ -19932,7 +19932,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.649108895188059</v>
+        <v>1.557847246176037</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.154528204879199</v>
@@ -20021,7 +20021,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.650420365142335</v>
+        <v>1.558758788927152</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.854998097273775</v>
@@ -20110,7 +20110,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.66788006816755</v>
+        <v>1.566888682770404</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.877972980955358</v>
@@ -20199,7 +20199,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.668972717853719</v>
+        <v>1.567178817232284</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.991703892324841</v>
@@ -20288,7 +20288,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.670929760889648</v>
+        <v>1.571407802475042</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.099190141471476</v>
@@ -20377,7 +20377,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.677314326456669</v>
+        <v>1.57583670608686</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.95314405700185</v>
@@ -20466,7 +20466,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.681075612413158</v>
+        <v>1.56971279110772</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.817984855867615</v>
@@ -20555,7 +20555,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.672140276004555</v>
+        <v>1.564745123299049</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.987134277537497</v>
@@ -20644,7 +20644,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.663094140945493</v>
+        <v>1.561545736654704</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.827047013267312</v>
@@ -20733,7 +20733,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.643999018197101</v>
+        <v>1.544618352124995</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.956725076715538</v>
@@ -20822,7 +20822,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.619901025071413</v>
+        <v>1.528042839187865</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.205643076225062</v>
@@ -20911,7 +20911,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626070194180039</v>
+        <v>1.546168503412855</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.14084099149892</v>
@@ -21000,7 +21000,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.636943408664642</v>
+        <v>1.561205913659382</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.959523573480507</v>
@@ -21089,7 +21089,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.633650176404883</v>
+        <v>1.557059441139702</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.362029650553636</v>
@@ -21178,7 +21178,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622002625929924</v>
+        <v>1.554601238728343</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.226205826809515</v>
@@ -21267,7 +21267,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.608660986463363</v>
+        <v>1.548282668124464</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.343372005008127</v>
@@ -21356,7 +21356,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603059488060689</v>
+        <v>1.545798164962408</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.336052267491957</v>
@@ -21445,7 +21445,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.591767224238823</v>
+        <v>1.536340956887006</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.058341685982477</v>
@@ -21534,7 +21534,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583073021234678</v>
+        <v>1.527354084218611</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.150878889072749</v>
@@ -21820,7 +21820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441482215363344</v>
+        <v>1.395801705191909</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.452714719017411</v>
@@ -21909,7 +21909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.485353407176542</v>
+        <v>1.432495998679996</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.327818131457521</v>
@@ -21998,7 +21998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.491470646164896</v>
+        <v>1.440427629517693</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.211934216017891</v>
@@ -22087,7 +22087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5059695810083</v>
+        <v>1.461628128301544</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.480106551257473</v>
@@ -22176,7 +22176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.514064998280359</v>
+        <v>1.466000266003622</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.691941895531989</v>
@@ -22265,7 +22265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.496556215807775</v>
+        <v>1.449323754771394</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.252411373976292</v>
@@ -22354,7 +22354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.487271331451306</v>
+        <v>1.437535346547432</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.626282796598585</v>
@@ -22443,7 +22443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494572791990764</v>
+        <v>1.439838042977681</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.582530833517612</v>
@@ -22532,7 +22532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.494047548312492</v>
+        <v>1.435521083247411</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.492646743907541</v>
@@ -22621,7 +22621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.48841592833872</v>
+        <v>1.427181000710796</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.361681151834199</v>
@@ -22710,7 +22710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.493931126638733</v>
+        <v>1.426512969543656</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.420395488411251</v>
@@ -22799,7 +22799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.487276154768874</v>
+        <v>1.413523145044701</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.356719866588895</v>
@@ -22888,7 +22888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.519031594075566</v>
+        <v>1.452013087390726</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.367432493895111</v>
@@ -22977,7 +22977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.502952059847934</v>
+        <v>1.440330226101618</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.338135700148485</v>
@@ -23066,7 +23066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.526164315339339</v>
+        <v>1.461214711872845</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.376992851001337</v>
@@ -23155,7 +23155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.524263042170378</v>
+        <v>1.464540311592093</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.446344568196543</v>
@@ -23244,7 +23244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.541240701211153</v>
+        <v>1.477194435377662</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.488242658489704</v>
@@ -23333,7 +23333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5476189505159</v>
+        <v>1.482357682769186</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.472355123323903</v>
@@ -23422,7 +23422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.549177678679806</v>
+        <v>1.477535759839895</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.257821701291791</v>
@@ -23511,7 +23511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572347467245536</v>
+        <v>1.487540205469081</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.446130394136326</v>
@@ -23600,7 +23600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.596598439447816</v>
+        <v>1.502470774498821</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.697808117117648</v>
@@ -23689,7 +23689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.616465674637819</v>
+        <v>1.519475302532846</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.554557519372204</v>
@@ -23778,7 +23778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.61932685412435</v>
+        <v>1.516456016426948</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.628445606236182</v>
@@ -23867,7 +23867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622780380663291</v>
+        <v>1.520177197138536</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.547921474351127</v>
@@ -23956,7 +23956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.621334699884153</v>
+        <v>1.518336852239382</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.620895924360293</v>
@@ -24045,7 +24045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.63041438949508</v>
+        <v>1.525023857012208</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.592041041693473</v>
@@ -24134,7 +24134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.635816106793248</v>
+        <v>1.538997293080092</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.679652541064322</v>
@@ -24223,7 +24223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.653155399454265</v>
+        <v>1.544310446672366</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.533716898836843</v>
@@ -24312,7 +24312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668195795381368</v>
+        <v>1.552140942404499</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.673023954056678</v>
@@ -24401,7 +24401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.664348056552197</v>
+        <v>1.537470548016426</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.698727018568068</v>
@@ -24490,7 +24490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.629079191604579</v>
+        <v>1.508866626997792</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.49180008297538</v>
@@ -24579,7 +24579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.612226590367617</v>
+        <v>1.498032753923256</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.477154700093007</v>
@@ -24668,7 +24668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591503624506129</v>
+        <v>1.480615366472319</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.462005620744418</v>
@@ -24757,7 +24757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.569644944271141</v>
+        <v>1.47218446143477</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.530370700918252</v>
@@ -24846,7 +24846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.577969099374307</v>
+        <v>1.490105671931791</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.529745457059362</v>
@@ -24935,7 +24935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585289202693102</v>
+        <v>1.501209523937211</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.379684303653824</v>
@@ -25024,7 +25024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55509201836403</v>
+        <v>1.482711559174168</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.338622856551218</v>
@@ -25113,7 +25113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.559023395872306</v>
+        <v>1.495915072155321</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.403422425788289</v>
@@ -25202,7 +25202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.53971585215883</v>
+        <v>1.483640901978668</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.43799931527112</v>
@@ -25291,7 +25291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.535687370832262</v>
+        <v>1.48229762483131</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.491488206305561</v>
@@ -25380,7 +25380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.514676903956397</v>
+        <v>1.459350260448368</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.428282575496659</v>
@@ -25469,7 +25469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.484232454183808</v>
+        <v>1.428226502861328</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.470810056852629</v>
